--- a/bin/mia-result/04_Data_3/Data_3_results.xlsx
+++ b/bin/mia-result/04_Data_3/Data_3_results.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7361bdf95a53a600/Dokumente/Nic_Stuff/GitHub/MIALab_project/bin/mia-result/04_Data_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634d2c18404eb9fd/Dokumente/GitHub/MIALab_project/bin/mia-result/04_Data_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5D2B757-B776-4174-ADE6-E779A84EBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C5D2B757-B776-4174-ADE6-E779A84EBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E414417-5B91-466F-B9B3-A34C88BD2961}"/>
   <bookViews>
-    <workbookView xWindow="30555" yWindow="735" windowWidth="14850" windowHeight="11460"/>
+    <workbookView xWindow="9015" yWindow="-21720" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -112,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -946,16 +957,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>100307</v>
       </c>
@@ -1082,7 +1093,7 @@
         <v>0.842855881573913</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>100307</v>
       </c>
@@ -1153,7 +1164,7 @@
         <v>0.846401255076348</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>100307</v>
       </c>
@@ -1220,7 +1231,7 @@
         <v>0.85309228203684995</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>100307</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>0.862555574225366</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>100307</v>
       </c>
@@ -1358,7 +1369,7 @@
         <v>0.83927213141680501</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1440,7 @@
         <v>0.84964936596069396</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>0.84836370814622197</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1563,7 +1574,7 @@
         <v>0.85717223885372096</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1634,7 +1645,7 @@
         <v>0.84788694866428205</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +1716,7 @@
         <v>0.83560700236790597</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>100408</v>
       </c>
@@ -1732,7 +1743,7 @@
         <v>6.2214592096186552</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>100408</v>
       </c>
@@ -1799,7 +1810,7 @@
         <v>0.84828563883221064</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>100408</v>
       </c>
@@ -1829,8 +1840,48 @@
         <f xml:space="preserve"> AVERAGE(C5,C15,C25,C35,C45,C55,C65,C75,C85,C95,C105)</f>
         <v>0.75677001590621018</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>_xlfn.STDEV.S(L2:L11)</f>
+        <v>3.1789365171298864E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:U14" si="1">_xlfn.STDEV.S(M2:M11)</f>
+        <v>4.0678263294839749E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>9.4361496726983966E-3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1.2708176892235161E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>5.9101195555178627E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>7.1635322255600306E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>2.4426903720784782E-2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>2.5304406895532448E-2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>1.2731737771003266E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>8.0467774078098967E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>100408</v>
       </c>
@@ -1861,7 +1912,7 @@
         <v>2.4426903720784782E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>100408</v>
       </c>
@@ -1888,7 +1939,7 @@
         <v>3.8616425837798132</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1915,7 +1966,7 @@
         <v>0.56540698727980188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1946,7 +1997,7 @@
         <v>0.83421682136526876</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1977,7 +2028,7 @@
         <v>1.2731737771003266E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2004,7 +2055,7 @@
         <v>2.3309330091990907</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2082,7 @@
         <v>0.27233824276699053</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>101107</v>
       </c>
@@ -2045,7 +2096,7 @@
         <v>11.4455231422595</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>101107</v>
       </c>
@@ -2059,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>101107</v>
       </c>
@@ -2073,7 +2124,7 @@
         <v>12.688577540449501</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>101107</v>
       </c>
@@ -2087,7 +2138,7 @@
         <v>11.4455231422595</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>101107</v>
       </c>
@@ -2101,7 +2152,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2115,7 +2166,7 @@
         <v>10.816653826391899</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2129,7 +2180,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2143,7 +2194,7 @@
         <v>7.3484692283495301</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2157,7 +2208,7 @@
         <v>4.3588989435406704</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2171,7 +2222,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>101309</v>
       </c>
@@ -2185,7 +2236,7 @@
         <v>9.21954445729288</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>101309</v>
       </c>
@@ -2199,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>101309</v>
       </c>
@@ -2213,7 +2264,7 @@
         <v>9.6953597148326498</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>101309</v>
       </c>
@@ -2227,7 +2278,7 @@
         <v>12.4096736459908</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>101309</v>
       </c>
@@ -2241,7 +2292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2255,7 +2306,7 @@
         <v>7.0710678118654702</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2269,7 +2320,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2283,7 +2334,7 @@
         <v>4.8989794855663504</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2297,7 +2348,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2311,7 +2362,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>101915</v>
       </c>
@@ -2325,7 +2376,7 @@
         <v>11.704699910719601</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>101915</v>
       </c>
@@ -2339,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>101915</v>
       </c>
@@ -2353,7 +2404,7 @@
         <v>10.770329614269</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>101915</v>
       </c>
@@ -2367,7 +2418,7 @@
         <v>9.4868329805051292</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>101915</v>
       </c>
@@ -2381,7 +2432,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2395,7 +2446,7 @@
         <v>7.0710678118654702</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2409,7 +2460,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2423,7 +2474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2437,7 +2488,7 @@
         <v>3.74165738677394</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2451,7 +2502,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>103111</v>
       </c>
@@ -2465,7 +2516,7 @@
         <v>11.8321595661992</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>103111</v>
       </c>
@@ -2479,7 +2530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>103111</v>
       </c>
@@ -2493,7 +2544,7 @@
         <v>10.8627804912002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>103111</v>
       </c>
@@ -2507,7 +2558,7 @@
         <v>7.0710678118654702</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>103111</v>
       </c>
@@ -2521,7 +2572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2535,7 +2586,7 @@
         <v>7.6157731058638998</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2549,7 +2600,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2563,7 +2614,7 @@
         <v>4.2426406871192803</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2577,7 +2628,7 @@
         <v>3.74165738677394</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2591,7 +2642,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62">
         <v>103414</v>
       </c>
@@ -2605,7 +2656,7 @@
         <v>11.704699910719601</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63">
         <v>103414</v>
       </c>
@@ -2619,7 +2670,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64">
         <v>103414</v>
       </c>
@@ -2633,7 +2684,7 @@
         <v>11.704699910719601</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A65">
         <v>103414</v>
       </c>
@@ -2647,7 +2698,7 @@
         <v>10.049875621120799</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A66">
         <v>103414</v>
       </c>
@@ -2661,7 +2712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2675,7 +2726,7 @@
         <v>10.816653826391899</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +2740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2703,7 +2754,7 @@
         <v>6.4031242374328396</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2717,7 +2768,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2731,7 +2782,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A72">
         <v>103818</v>
       </c>
@@ -2745,7 +2796,7 @@
         <v>10.677078252031301</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A73">
         <v>103818</v>
       </c>
@@ -2759,7 +2810,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A74">
         <v>103818</v>
       </c>
@@ -2773,7 +2824,7 @@
         <v>10.049875621120799</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A75">
         <v>103818</v>
       </c>
@@ -2787,7 +2838,7 @@
         <v>8.0622577482985491</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A76">
         <v>103818</v>
       </c>
@@ -2801,7 +2852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2815,7 +2866,7 @@
         <v>9.4868329805051292</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2829,7 +2880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +2894,7 @@
         <v>5.6568542494923797</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +2908,7 @@
         <v>4.1231056256176597</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2871,7 +2922,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A82">
         <v>105014</v>
       </c>
@@ -2885,7 +2936,7 @@
         <v>9.8488578017961004</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A83">
         <v>105014</v>
       </c>
@@ -2899,7 +2950,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A84">
         <v>105014</v>
       </c>
@@ -2913,7 +2964,7 @@
         <v>11.180339887498899</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A85">
         <v>105014</v>
       </c>
@@ -2927,7 +2978,7 @@
         <v>13.747727084867501</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A86">
         <v>105014</v>
       </c>
@@ -2941,7 +2992,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2955,7 +3006,7 @@
         <v>5.1961524227066302</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -2969,7 +3020,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -2983,7 +3034,7 @@
         <v>5.3851648071345002</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -2997,7 +3048,7 @@
         <v>3.74165738677394</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -3011,7 +3062,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A92">
         <v>105115</v>
       </c>
@@ -3025,7 +3076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A93">
         <v>105115</v>
       </c>
@@ -3039,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A94">
         <v>105115</v>
       </c>
@@ -3053,7 +3104,7 @@
         <v>13.490737563232001</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A95">
         <v>105115</v>
       </c>
@@ -3067,7 +3118,7 @@
         <v>7.0710678118654702</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A96">
         <v>105115</v>
       </c>
@@ -3081,7 +3132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -3095,7 +3146,7 @@
         <v>12.0415945787922</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -3109,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -3123,7 +3174,7 @@
         <v>5.0990195135927801</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -3137,7 +3188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>18</v>
       </c>
